--- a/doc/05.Design/sdk protocal/detials of sdk protocal.xlsx
+++ b/doc/05.Design/sdk protocal/detials of sdk protocal.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ad exchange\adx\doc\05.Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ad exchange\adx\doc\05.Design\sdk protocal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -452,49 +452,49 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -777,466 +777,472 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.25" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="26.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="45.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="21.375" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="12.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="45.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.375" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="7"/>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="9"/>
+      <c r="D4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="11"/>
+      <c r="D5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="12"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="15"/>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="D12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="15"/>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5" t="s">
+      <c r="D13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="15"/>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5" t="s">
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="15"/>
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5" t="s">
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="15"/>
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="13"/>
+      <c r="B16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5" t="s">
+      <c r="D16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="15"/>
-      <c r="B17" s="5" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5" t="s">
+      <c r="E17" s="3"/>
+      <c r="F17" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="15"/>
-      <c r="B18" s="5" t="s">
+      <c r="A18" s="13"/>
+      <c r="B18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="5" t="s">
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="15"/>
-      <c r="B19" s="5" t="s">
+      <c r="A19" s="13"/>
+      <c r="B19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="5" t="s">
+      <c r="D19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="15"/>
-      <c r="B20" s="5" t="s">
+      <c r="A20" s="13"/>
+      <c r="B20" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5" t="s">
+      <c r="E20" s="3"/>
+      <c r="F20" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="15"/>
-      <c r="B21" s="5" t="s">
+      <c r="A21" s="13"/>
+      <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5" t="s">
+      <c r="E21" s="3"/>
+      <c r="F21" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="15"/>
-      <c r="B22" s="5" t="s">
+      <c r="A22" s="13"/>
+      <c r="B22" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5" t="s">
+      <c r="D22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="15"/>
-      <c r="B23" s="5" t="s">
+      <c r="A23" s="13"/>
+      <c r="B23" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5" t="s">
+      <c r="D23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="16"/>
-      <c r="B24" s="5" t="s">
+      <c r="A24" s="14"/>
+      <c r="B24" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
+      <c r="D24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="9" t="s">
+      <c r="B26" s="7"/>
+      <c r="C26" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5" t="s">
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5" t="s">
+      <c r="A28" s="9"/>
+      <c r="B28" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5" t="s">
+      <c r="D28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5" t="s">
+      <c r="A29" s="9"/>
+      <c r="B29" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5" t="s">
+      <c r="D29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A25:F25"/>
     <mergeCell ref="A27:A29"/>
@@ -1245,11 +1251,6 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="A11:A24"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/05.Design/sdk protocal/detials of sdk protocal.xlsx
+++ b/doc/05.Design/sdk protocal/detials of sdk protocal.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="请求协议" sheetId="1" r:id="rId1"/>
+    <sheet name="返回协议" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="78">
   <si>
     <t>字段名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -303,6 +304,38 @@
   </si>
   <si>
     <t>com.xmxedu.oaken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告类型，页面跳转，文件下载，app安装，打电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-页面跳转，1-文件下载，2-app安装，3-打电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_material</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加密后的广告物料，一般是一个组装好的html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>track</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟踪下的展示，点击，安装的监控地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含展示，点击，安装三类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,7 +478,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -467,18 +500,27 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -491,10 +533,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -780,8 +819,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -796,10 +835,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="8"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -839,10 +878,10 @@
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
@@ -852,10 +891,10 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="16"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
@@ -865,11 +904,11 @@
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
@@ -904,17 +943,17 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="11"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="7"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="5" t="s">
         <v>1</v>
       </c>
@@ -929,7 +968,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -949,7 +988,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="13"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="3" t="s">
         <v>22</v>
       </c>
@@ -967,7 +1006,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="13"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
@@ -983,7 +1022,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="13"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="3" t="s">
         <v>28</v>
       </c>
@@ -999,7 +1038,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="13"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="3" t="s">
         <v>31</v>
       </c>
@@ -1015,7 +1054,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="13"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="3" t="s">
         <v>32</v>
       </c>
@@ -1031,7 +1070,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="13"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="3" t="s">
         <v>36</v>
       </c>
@@ -1047,7 +1086,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="13"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="3" t="s">
         <v>39</v>
       </c>
@@ -1065,7 +1104,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="13"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="3" t="s">
         <v>42</v>
       </c>
@@ -1083,7 +1122,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="13"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="3" t="s">
         <v>47</v>
       </c>
@@ -1099,7 +1138,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="13"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -1115,7 +1154,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="13"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="3" t="s">
         <v>53</v>
       </c>
@@ -1131,7 +1170,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="13"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="3" t="s">
         <v>56</v>
       </c>
@@ -1147,7 +1186,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="14"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="3" t="s">
         <v>59</v>
       </c>
@@ -1161,18 +1200,18 @@
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="7"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="5" t="s">
         <v>1</v>
       </c>
@@ -1238,11 +1277,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A25:F25"/>
     <mergeCell ref="A27:A29"/>
@@ -1251,9 +1285,98 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="A11:A24"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="49.125" customWidth="1"/>
+    <col min="3" max="3" width="44.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="18"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>